--- a/excels/myFile.xlsx
+++ b/excels/myFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-47720" yWindow="-13060" windowWidth="44520" windowHeight="25740"/>
+    <workbookView xWindow="-47720" yWindow="-13980" windowWidth="44520" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="选择题" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>题目</t>
   </si>
@@ -266,15 +266,81 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CE    BA</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">A  </t>
+    <t>某大型煤矿集团利用现代通讯信息技术建立重大危险源、应急队伍和应急装备信息系统；组织制定综合应急预案和瓦斯爆炸专项应急预案，并对预案及时进行修订完善；与相关专业救援队伍签订救援协议；以上的一系列措施属于应急管理中的（  ）阶段。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物质燃烧特性和国家标准，C类火灾是指（    ）火灾。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>固体物质</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体</t>
+  </si>
+  <si>
+    <t>气体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何处置工作的开展都必须以对现场形势的准确评估为前提。因此，事故应急处置人员到达现场后，需要对现场状态与情景进行评估，以获取准确的事故现场信息，从而有效进行现场控制。下列选项中，属于现场状态与情景评估内容的有（  ）。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众动员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急资源</t>
+  </si>
+  <si>
+    <t>经济损失</t>
+  </si>
+  <si>
+    <t>社会影响</t>
+  </si>
+  <si>
+    <t>BCDE</t>
+  </si>
+  <si>
+    <t>周围环境</t>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -307,6 +373,18 @@
     <font>
       <sz val="9"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -448,7 +526,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -502,6 +580,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1698,7 +1782,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1746,11 +1830,9 @@
       <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1773,38 +1855,76 @@
         <v>16</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>

--- a/excels/myFile.xlsx
+++ b/excels/myFile.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VincentWong/Develop/TestServer/exam-server/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raoyu/Desktop/实习项目/exam/exam-server/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9414A4B-1750-A140-B86E-B680FC4CF831}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47720" yWindow="-13980" windowWidth="44520" windowHeight="15460"/>
+    <workbookView xWindow="-4820" yWindow="-18100" windowWidth="38400" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="选择题" sheetId="1" r:id="rId1"/>
     <sheet name="判断题" sheetId="2" r:id="rId2"/>
     <sheet name="简答题" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,9 +50,6 @@
     <t>答案</t>
   </si>
   <si>
-    <t>《中共中央 国务院关于推进安全生产领域改革发展的意见》（2016年12月9日）明确提出了健全应急救援管理体制要求：按照政事分开原则，推进安全生产应急救援管理体制改革，强化（），提高组织协调能力和现场救援时效。</t>
-  </si>
-  <si>
     <t>行政管理职能</t>
   </si>
   <si>
@@ -99,6 +97,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（1）生产经营单位消防力量（1分）</t>
     </r>
@@ -107,6 +106,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -116,6 +116,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（2）个体防护装备（1分）</t>
     </r>
@@ -124,6 +125,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -133,6 +135,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（3）人力资源（1分）</t>
     </r>
@@ -141,6 +144,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -150,6 +154,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（4）报警和通讯、联络设备（1分）</t>
     </r>
@@ -158,6 +163,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -167,6 +173,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（5）监测检测设备（1分）</t>
     </r>
@@ -175,6 +182,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -184,6 +192,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（6）泄漏控制设备（1分）</t>
     </r>
@@ -192,6 +201,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -201,6 +211,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（7）保安和进出管制设备（1分）</t>
     </r>
@@ -209,6 +220,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -218,6 +230,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（8）应急电力设备（1分）</t>
     </r>
@@ -226,6 +239,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -235,6 +249,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（9）应急救援所需的重型设备（1分）</t>
     </r>
@@ -243,6 +258,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -252,6 +268,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>（10）各种保障制度（1分）</t>
     </r>
@@ -260,6 +277,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -341,14 +359,98 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>《中共中央</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>国务院关于推进安全生产领域改革发展的意见》（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>日）明确提出了健全应急救援管理体制要求：按照政事分开原则，推进安全生产应急救援管理体制改革，强化（），提高组织协调能力和现场救援时效。</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -359,20 +461,24 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -385,6 +491,19 @@
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -526,7 +645,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -586,6 +705,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,6 +786,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1772,8 +1897,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IU22"/>
@@ -1782,16 +1907,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="119.6640625" style="1" customWidth="1"/>
     <col min="2" max="255" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1814,116 +1939,116 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="38.5" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38.25" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1932,7 +2057,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="20.25" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1941,7 +2066,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="20.25" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1950,7 +2075,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="20.25" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1959,7 +2084,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1968,7 +2093,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="20.25" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1977,7 +2102,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1986,7 +2111,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="20.25" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1995,7 +2120,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="20.25" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2004,7 +2129,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="20.25" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2013,7 +2138,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="20.25" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2022,7 +2147,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="20.25" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2031,7 +2156,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="20.25" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2040,7 +2165,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="20.25" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2049,7 +2174,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2058,7 +2183,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="20.25" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2078,8 +2203,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
@@ -2091,14 +2216,14 @@
       <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="97.5" style="14" customWidth="1"/>
     <col min="3" max="256" width="16.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2109,71 +2234,71 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="23.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="23.25" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="20.25" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="20.25" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="20.25" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="20.25" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="20.25" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="20.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -2191,8 +2316,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
@@ -2204,7 +2329,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="16" customWidth="1"/>
     <col min="2" max="2" width="71.83203125" style="16" customWidth="1"/>
@@ -2212,7 +2337,7 @@
     <col min="4" max="256" width="16.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2221,51 +2346,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="193" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="193" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="20.25" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="20.25" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="20.25" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="20.25" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="20.25" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
